--- a/Data/normes_valeurs.xlsx
+++ b/Data/normes_valeurs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnaou\Bureau\Master2_Digisport2\Outils_numériques_Suivi_Charge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjetONSC\ProjetONSC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0993CE01-0350-480E-A68C-4CBD4533EE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4410B1A6-141A-4D7F-9E10-558923D6C79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9405" yWindow="2010" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="97">
   <si>
     <t>&lt;0,5</t>
   </si>
@@ -322,6 +320,12 @@
   </si>
   <si>
     <t>37.5</t>
+  </si>
+  <si>
+    <t>Norme_inf</t>
+  </si>
+  <si>
+    <t>Norme_supp</t>
   </si>
 </sst>
 </file>
@@ -433,7 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,14 +501,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -795,14 +792,13 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625"/>
-    <col min="3" max="3" width="11.44140625" style="4"/>
-    <col min="4" max="4" width="19.33203125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="4"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4"/>
+    <col min="4" max="4" width="19.28515625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="4"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -871,7 +867,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:12" ht="46.2" customHeight="1">
+    <row r="3" spans="1:12" ht="46.15" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>81</v>
       </c>
@@ -887,7 +883,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2" customHeight="1">
+    <row r="4" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>85</v>
       </c>
@@ -955,7 +951,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" ht="16.2" customHeight="1">
+    <row r="6" spans="1:12" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>84</v>
       </c>
@@ -2649,191 +2645,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92297CDD-5C67-4970-A88E-8A76E06E8AFF}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="35">
+      <c r="B4" s="33">
         <v>4</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C4" s="33">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B5">
         <v>121</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="33" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B6">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="33" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B7">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="33" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B8">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="33" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="33" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="33" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B12" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="33" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="33" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B14">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="33" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B15">
         <v>300</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="33" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="33">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B17" s="33">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="36">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="33"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="33"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="33"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="33"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="33"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="33"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="33"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/normes_valeurs.xlsx
+++ b/Data/normes_valeurs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjetONSC\ProjetONSC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB1D19-ED5B-45D6-A371-C14DE1733746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D530E-D9A6-4BC3-A62E-EE0E3DF4A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1560" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28536" yWindow="1704" windowWidth="21636" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,10 +87,10 @@
     <t>1,25-dihydroxyvitamine D</t>
   </si>
   <si>
-    <t>Ratio Testo/Corti</t>
-  </si>
-  <si>
     <t>Donnees</t>
+  </si>
+  <si>
+    <t>Vitamin B12</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +426,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -591,24 +591,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1">
-        <v>64</v>
+        <v>950</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Data/normes_valeurs.xlsx
+++ b/Data/normes_valeurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjetONSC\ProjetONSC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D530E-D9A6-4BC3-A62E-EE0E3DF4A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A95E42A-2669-43DC-903C-2B474B28A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28536" yWindow="1704" windowWidth="21636" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>999</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
